--- a/wife.xlsx
+++ b/wife.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>未买的</t>
   </si>
@@ -70,25 +70,25 @@
     <t>每日黑巧（燕麦拿铁、营养藜麦、特醇原味）</t>
   </si>
   <si>
-    <t>超有味梅干菜饼干</t>
+    <t>芋泥奶酪双拼卷（大喜私厨）</t>
   </si>
   <si>
     <t>芒果条</t>
   </si>
   <si>
-    <t>芋泥奶酪双拼卷（大喜私厨）</t>
+    <t>牧森低脂奶酪、牧森蒜香奶酪、牧森蓝纹奶酪、意森蓓尼低脂奶酪、意森蓓尼蒜香奶酪、沃特堡蒜香奶酪</t>
   </si>
   <si>
     <t>雁北农夫红杏条</t>
   </si>
   <si>
-    <t>牧森低脂奶酪、牧森蒜香奶酪、牧森蓝纹奶酪、意森蓓尼低脂奶酪、意森蓓尼蒜香奶酪、沃特堡蒜香奶酪</t>
+    <t>薯愿玫瑰味</t>
   </si>
   <si>
     <t>日本711便利店零食代购浓厚朗姆奶酥提子</t>
   </si>
   <si>
-    <t>薯愿玫瑰味</t>
+    <t>不倒翁芝麻鸡蛋面</t>
   </si>
   <si>
     <t>赞叹小红薯干</t>
@@ -97,33 +97,33 @@
     <t>太甜应该少吃</t>
   </si>
   <si>
-    <t>不倒翁芝麻鸡蛋面</t>
+    <t>韩国泡面（牌子未知）</t>
   </si>
   <si>
     <t>酱多多（虎皮三明治）</t>
   </si>
   <si>
-    <t>韩国泡面（牌子未知）</t>
+    <t>红糖年糕条（牌子未知）</t>
   </si>
   <si>
     <t>乐乐茶</t>
   </si>
   <si>
-    <t>红糖年糕条（牌子未知）</t>
-  </si>
-  <si>
     <t>品客薯片（小Q包）</t>
   </si>
   <si>
+    <t>超友味梅干菜饼干</t>
+  </si>
+  <si>
     <t>呼伦贝尔沙果干</t>
   </si>
   <si>
+    <t>软话梅（牌子未知）</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.51.20194060emNpry&amp;id=521120590404&amp;ns=1&amp;abbucket=6#detail</t>
   </si>
   <si>
-    <t>软话梅（牌子未知）</t>
-  </si>
-  <si>
     <t>三养凉拌面、火鸡面</t>
   </si>
   <si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>Chateraise</t>
     </r>
     <r>
@@ -169,6 +175,9 @@
   </si>
   <si>
     <t>六花亭——朗姆酒黄油提子饼干</t>
+  </si>
+  <si>
+    <t>盒马——max海盐太妃糖</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1193,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1299,7 +1308,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
@@ -1317,87 +1326,90 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>32</v>
+      <c r="A14" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
+      <c r="A15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" ht="14.4" spans="1:1">
-      <c r="A20" s="6" t="s">
+    <row r="19" ht="14.4" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>42</v>
+      <c r="A23" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A24" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="14.4" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="14.4" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" ht="14.4" spans="1:1">
-      <c r="A27" s="7" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/wife.xlsx
+++ b/wife.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="零食" sheetId="1" r:id="rId1"/>
+    <sheet name="乐乐茶" sheetId="2" r:id="rId2"/>
+    <sheet name="化妆品相关" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">零食!$C$1:$C$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>未买的</t>
   </si>
@@ -178,6 +180,21 @@
   </si>
   <si>
     <t>盒马——max海盐太妃糖</t>
+  </si>
+  <si>
+    <t>苏丹王榴莲乳酸软包</t>
+  </si>
+  <si>
+    <t>咸蛋流沙淤泥土司、咸蛋酥松芋泥土司、奶麻薯脏脏流心吐司</t>
+  </si>
+  <si>
+    <t>咖啡燕麦麻薯</t>
+  </si>
+  <si>
+    <t>黑糖厚芋泥软包、星空流沙软包</t>
+  </si>
+  <si>
+    <t>TF35杏茶盘</t>
   </si>
 </sst>
 </file>
@@ -919,8 +936,212 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12589510" y="487045"/>
-          <a:ext cx="3136900" cy="6790055"/>
+          <a:off x="13985875" y="492125"/>
+          <a:ext cx="3479800" cy="6866255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>445135</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38735" y="254000"/>
+          <a:ext cx="2387600" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323215</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="b1bbf9127fdb2d77e38d70e2eaeb5d5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="2029460"/>
+          <a:ext cx="3618865" cy="8041640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570230</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="d6addd3864757138dddf3bcd2046b95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="361950"/>
+          <a:ext cx="4526280" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>570230</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="4f27a602098ae3499c8314dcb6e08b2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9912350" y="361950"/>
+          <a:ext cx="4526280" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>153670</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="1667013158190"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="169545"/>
+          <a:ext cx="3455035" cy="4548505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,14 +1414,14 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="39.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="66.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="40.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="39.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="66.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="40.5583333333333" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1367,7 +1588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" ht="14.4" spans="1:1">
+    <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
@@ -1397,12 +1618,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" ht="14.4" spans="1:1">
+    <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" ht="14.4" spans="1:1">
+    <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
@@ -1420,4 +1641,61 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/wife.xlsx
+++ b/wife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7010"/>
+    <workbookView windowWidth="19200" windowHeight="6410"/>
   </bookViews>
   <sheets>
     <sheet name="零食" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="化妆品相关" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">零食!$C$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">零食!$C$1:$C$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -120,6 +120,9 @@
     <t>呼伦贝尔沙果干</t>
   </si>
   <si>
+    <t>丹香海盐不甜曲奇</t>
+  </si>
+  <si>
     <t>软话梅（牌子未知）</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
   </si>
   <si>
     <t>三养凉拌面、火鸡面</t>
-  </si>
-  <si>
-    <t>丹香海盐不甜曲奇</t>
   </si>
   <si>
     <t>IN SNACK黑松露薯片</t>
@@ -1411,10 +1411,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1555,81 +1555,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>38</v>
+      <c r="A18" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
-        <v>39</v>
+      <c r="A19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>42</v>
+      <c r="A22" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>43</v>
+      <c r="A23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>44</v>
+      <c r="A24" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
     </row>

--- a/wife.xlsx
+++ b/wife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6410"/>
+    <workbookView windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="零食" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>未买的</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>盒马——max海盐太妃糖</t>
+  </si>
+  <si>
+    <t>kindcards饼干</t>
   </si>
   <si>
     <t>苏丹王榴莲乳酸软包</t>
@@ -1411,10 +1414,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1629,6 +1632,11 @@
     <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1654,18 +1662,18 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1696,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/wife.xlsx
+++ b/wife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7010"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="零食" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>未买的</t>
   </si>
@@ -129,7 +129,13 @@
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.51.20194060emNpry&amp;id=521120590404&amp;ns=1&amp;abbucket=6#detail</t>
   </si>
   <si>
+    <t>盒马——max海盐太妃糖</t>
+  </si>
+  <si>
     <t>三养凉拌面、火鸡面</t>
+  </si>
+  <si>
+    <t>六花亭——朗姆酒黄油提子饼干</t>
   </si>
   <si>
     <t>IN SNACK黑松露薯片</t>
@@ -176,13 +182,40 @@
     <t>费列罗Rocher新出的高端黑巧系列Origins-黑金三重奏</t>
   </si>
   <si>
-    <t>六花亭——朗姆酒黄油提子饼干</t>
-  </si>
-  <si>
-    <t>盒马——max海盐太妃糖</t>
-  </si>
-  <si>
     <t>kindcards饼干</t>
+  </si>
+  <si>
+    <t>李老头速食早餐烧麦</t>
+  </si>
+  <si>
+    <t>麦西恩玉米片</t>
+  </si>
+  <si>
+    <t>盒马朝日唯品酪乳</t>
+  </si>
+  <si>
+    <t>山姆猪柳饼、欧姆蛋可颂三明治</t>
+  </si>
+  <si>
+    <t>盒马芋泥麻薯八宝饭</t>
+  </si>
+  <si>
+    <t>悠哈果汁软糖</t>
+  </si>
+  <si>
+    <t>好利来葡萄奶酥</t>
+  </si>
+  <si>
+    <t>茄皇番茄肉酱风味拌面</t>
+  </si>
+  <si>
+    <t>盒马奶酪拉丝</t>
+  </si>
+  <si>
+    <t>欢乐剥皮糖</t>
+  </si>
+  <si>
+    <t>广莲申芋泥巴斯克</t>
   </si>
   <si>
     <t>苏丹王榴莲乳酸软包</t>
@@ -221,13 +254,13 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -939,8 +972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13985875" y="492125"/>
-          <a:ext cx="3479800" cy="6866255"/>
+          <a:off x="12589510" y="487045"/>
+          <a:ext cx="3136900" cy="6790055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,8 +1015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38735" y="254000"/>
-          <a:ext cx="2387600" cy="1333500"/>
+          <a:off x="38735" y="251460"/>
+          <a:ext cx="2189480" cy="1315720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,8 +1057,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350" y="2029460"/>
-          <a:ext cx="3618865" cy="8041640"/>
+          <a:off x="6350" y="2001520"/>
+          <a:ext cx="3288665" cy="7927340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,8 +1095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="361950"/>
-          <a:ext cx="4526280" cy="10058400"/>
+          <a:off x="4166870" y="356870"/>
+          <a:ext cx="4130040" cy="9916160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1100,8 +1133,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9912350" y="361950"/>
-          <a:ext cx="4526280" cy="10058400"/>
+          <a:off x="8921750" y="356870"/>
+          <a:ext cx="4130040" cy="9916160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,7 +1177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635" y="169545"/>
-          <a:ext cx="3455035" cy="4548505"/>
+          <a:ext cx="3124835" cy="4482465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,17 +1447,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="39.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="66.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="40.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="39.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="66.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="40.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1558,85 +1591,139 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="14.4" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="14.4" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" ht="14.4" spans="1:1">
+      <c r="A24" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>46</v>
+      <c r="A25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1658,22 +1745,22 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1692,11 +1779,11 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/wife.xlsx
+++ b/wife.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>未买的</t>
   </si>
@@ -78,19 +78,19 @@
     <t>芒果条</t>
   </si>
   <si>
-    <t>牧森低脂奶酪、牧森蒜香奶酪、牧森蓝纹奶酪、意森蓓尼低脂奶酪、意森蓓尼蒜香奶酪、沃特堡蒜香奶酪</t>
+    <t>薯愿玫瑰味</t>
   </si>
   <si>
     <t>雁北农夫红杏条</t>
   </si>
   <si>
-    <t>薯愿玫瑰味</t>
+    <t>不倒翁芝麻鸡蛋面</t>
   </si>
   <si>
     <t>日本711便利店零食代购浓厚朗姆奶酥提子</t>
   </si>
   <si>
-    <t>不倒翁芝麻鸡蛋面</t>
+    <t>韩国泡面（牌子未知）</t>
   </si>
   <si>
     <t>赞叹小红薯干</t>
@@ -99,31 +99,31 @@
     <t>太甜应该少吃</t>
   </si>
   <si>
-    <t>韩国泡面（牌子未知）</t>
+    <t>红糖年糕条（牌子未知）</t>
   </si>
   <si>
     <t>酱多多（虎皮三明治）</t>
   </si>
   <si>
-    <t>红糖年糕条（牌子未知）</t>
+    <t>品客薯片（小Q包）</t>
   </si>
   <si>
     <t>乐乐茶</t>
   </si>
   <si>
-    <t>品客薯片（小Q包）</t>
+    <t>呼伦贝尔沙果干</t>
   </si>
   <si>
     <t>超友味梅干菜饼干</t>
   </si>
   <si>
-    <t>呼伦贝尔沙果干</t>
+    <t>软话梅（牌子未知）</t>
   </si>
   <si>
     <t>丹香海盐不甜曲奇</t>
   </si>
   <si>
-    <t>软话梅（牌子未知）</t>
+    <t>三养凉拌面、火鸡面</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.51.20194060emNpry&amp;id=521120590404&amp;ns=1&amp;abbucket=6#detail</t>
@@ -132,16 +132,16 @@
     <t>盒马——max海盐太妃糖</t>
   </si>
   <si>
-    <t>三养凉拌面、火鸡面</t>
+    <t>IN SNACK黑松露薯片</t>
   </si>
   <si>
     <t>六花亭——朗姆酒黄油提子饼干</t>
   </si>
   <si>
-    <t>IN SNACK黑松露薯片</t>
-  </si>
-  <si>
     <t>旺旺仙贝（玉米口味与熏烤风味）</t>
+  </si>
+  <si>
+    <t>牧森低脂奶酪</t>
   </si>
   <si>
     <r>
@@ -164,21 +164,39 @@
     </r>
   </si>
   <si>
+    <t>臭宝螺蛳粉</t>
+  </si>
+  <si>
     <t>旺旺仙贝（紫薯风味）</t>
   </si>
   <si>
+    <t>好欢螺螺蛳粉</t>
+  </si>
+  <si>
     <t>山楂锅盔（稻香村）</t>
   </si>
   <si>
+    <t>柳全螺蛳粉</t>
+  </si>
+  <si>
     <t>清宜荞麦鬼椒面</t>
   </si>
   <si>
+    <t>二十谷田全麦肉松芋泥紫薯、四季健康芋泥酪球、二十全麦四季健康可可</t>
+  </si>
+  <si>
     <t>Ole的法式忌廉芝士（下次去见老婆前要买，还有乐乐茶）</t>
   </si>
   <si>
+    <t>祁门红茶桃酥</t>
+  </si>
+  <si>
     <t>tims新品（咸蛋黄肉松烤肠卷）</t>
   </si>
   <si>
+    <t>麻辣王子</t>
+  </si>
+  <si>
     <t>费列罗Rocher新出的高端黑巧系列Origins-黑金三重奏</t>
   </si>
   <si>
@@ -216,6 +234,18 @@
   </si>
   <si>
     <t>广莲申芋泥巴斯克</t>
+  </si>
+  <si>
+    <t>肯德基新品咸蛋黄麻薯蛋挞</t>
+  </si>
+  <si>
+    <t>易梦玲同款白桃抹茶</t>
+  </si>
+  <si>
+    <t>山姆新品-宁波芝麻汤圆</t>
+  </si>
+  <si>
+    <t>厦门帕帕烘焙板栗饼</t>
   </si>
   <si>
     <t>苏丹王榴莲乳酸软包</t>
@@ -1447,10 +1477,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1551,7 +1581,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1573,7 +1603,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1592,7 +1622,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1603,7 +1633,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
@@ -1621,109 +1651,154 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" ht="14.4" spans="1:1">
-      <c r="A18" s="7" t="s">
+    <row r="17" ht="14.4" spans="1:4">
+      <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" ht="14.4" spans="1:1">
-      <c r="A24" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" ht="14.4" spans="1:1">
+      <c r="A23" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1749,18 +1824,18 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1783,7 +1858,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/wife.xlsx
+++ b/wife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="零食" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>未买的</t>
   </si>
@@ -185,21 +185,18 @@
     <t>二十谷田全麦肉松芋泥紫薯、四季健康芋泥酪球、二十全麦四季健康可可</t>
   </si>
   <si>
-    <t>Ole的法式忌廉芝士（下次去见老婆前要买，还有乐乐茶）</t>
+    <t>tims新品（咸蛋黄肉松烤肠卷）</t>
   </si>
   <si>
     <t>祁门红茶桃酥</t>
   </si>
   <si>
-    <t>tims新品（咸蛋黄肉松烤肠卷）</t>
+    <t>费列罗Rocher新出的高端黑巧系列Origins-黑金三重奏</t>
   </si>
   <si>
     <t>麻辣王子</t>
   </si>
   <si>
-    <t>费列罗Rocher新出的高端黑巧系列Origins-黑金三重奏</t>
-  </si>
-  <si>
     <t>kindcards饼干</t>
   </si>
   <si>
@@ -246,6 +243,86 @@
   </si>
   <si>
     <t>厦门帕帕烘焙板栗饼</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>澳洲</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Grain waves</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网红低卡薯片进口零食（甜辣味本土最爱，贼爱吃！！！）</t>
+    </r>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-18689923974.9.4f773d88FgMB9L&amp;id=537450088204</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>件包邮澳洲进口</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Red Rock Deli</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红岩薯片（蜂蜜酱汁鸡尾，贼爱吃！！！）</t>
+    </r>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-18689923974.9.60313d88unddhh&amp;id=598283687754</t>
   </si>
   <si>
     <t>苏丹王榴莲乳酸软包</t>
@@ -273,7 +350,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +368,20 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -756,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,37 +859,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,98 +892,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -911,6 +1002,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -984,8 +1081,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>74930</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,8 +1099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12589510" y="487045"/>
-          <a:ext cx="3136900" cy="6790055"/>
+          <a:off x="13985875" y="492125"/>
+          <a:ext cx="3479800" cy="6866255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1045,8 +1142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38735" y="251460"/>
-          <a:ext cx="2189480" cy="1315720"/>
+          <a:off x="38735" y="254000"/>
+          <a:ext cx="2387600" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1087,8 +1184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350" y="2001520"/>
-          <a:ext cx="3288665" cy="7927340"/>
+          <a:off x="6350" y="2029460"/>
+          <a:ext cx="3618865" cy="8041640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,8 +1222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4166870" y="356870"/>
-          <a:ext cx="4130040" cy="9916160"/>
+          <a:off x="4629150" y="361950"/>
+          <a:ext cx="4526280" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1163,8 +1260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8921750" y="356870"/>
-          <a:ext cx="4130040" cy="9916160"/>
+          <a:off x="9912350" y="361950"/>
+          <a:ext cx="4526280" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1207,7 +1304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635" y="169545"/>
-          <a:ext cx="3124835" cy="4482465"/>
+          <a:ext cx="3455035" cy="4548505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1477,17 +1574,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="39.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="66.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="40.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="39.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="66.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="40.5583333333333" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1643,7 +1740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1659,7 +1756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" ht="14.4" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -1701,7 +1798,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
@@ -1709,15 +1806,15 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" ht="14.4" spans="1:1">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1796,9 +1893,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" ht="30" spans="1:2">
+      <c r="A39" s="8" t="s">
         <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" ht="30" spans="1:2">
+      <c r="A40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1820,22 +1928,22 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1854,11 +1962,11 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/wife.xlsx
+++ b/wife.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>未买的</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-18689923974.9.60313d88unddhh&amp;id=598283687754</t>
+  </si>
+  <si>
+    <t>绿盛牛肉干</t>
+  </si>
+  <si>
+    <t>卫龙麻辣麻辣（地道麻辣味）</t>
   </si>
   <si>
     <t>苏丹王榴莲乳酸软包</t>
@@ -1574,10 +1580,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1907,6 +1913,16 @@
       </c>
       <c r="B40" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1932,18 +1948,18 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +1982,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/wife.xlsx
+++ b/wife.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7010"/>
+    <workbookView windowWidth="19200" windowHeight="6410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="零食" sheetId="1" r:id="rId1"/>
-    <sheet name="乐乐茶" sheetId="2" r:id="rId2"/>
-    <sheet name="化妆品相关" sheetId="3" r:id="rId3"/>
+    <sheet name="4月买" sheetId="4" r:id="rId2"/>
+    <sheet name="乐乐茶" sheetId="2" r:id="rId3"/>
+    <sheet name="其它" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">零食!$C$1:$C$19</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>未买的</t>
   </si>
@@ -200,7 +201,16 @@
     <t>kindcards饼干</t>
   </si>
   <si>
+    <t>卫龙麻辣麻辣（地道麻辣味）</t>
+  </si>
+  <si>
     <t>李老头速食早餐烧麦</t>
+  </si>
+  <si>
+    <t>油炸腐竹100克5袋黄豆制品广西螺蛳粉配菜</t>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.UmtI8lx?tk=zK6ndgkOuCL</t>
   </si>
   <si>
     <t>麦西恩玉米片</t>
@@ -328,7 +338,28 @@
     <t>绿盛牛肉干</t>
   </si>
   <si>
-    <t>卫龙麻辣麻辣（地道麻辣味）</t>
+    <t>山姆超市白切达奶酪味玉米脆片</t>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.UOv1Yje?tk=T1RGdgklDJu</t>
+  </si>
+  <si>
+    <t>粒上皇奶芙草莓干300ml</t>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.UOv1RXW?tk=JoQgdgkmP7g</t>
+  </si>
+  <si>
+    <t>粒上皇苦荞片荞麦片116g</t>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.UlUFcoj?tk=PWRmdgkOuvA</t>
+  </si>
+  <si>
+    <t>卸妆油400ml</t>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.UOvbIEO?tk=JfdVdgkOBnJ</t>
   </si>
   <si>
     <t>苏丹王榴莲乳酸软包</t>
@@ -377,6 +408,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF3C3C3C"/>
@@ -414,14 +453,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,10 +884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,19 +896,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,13 +941,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -928,10 +959,10 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -946,56 +977,56 @@
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1008,10 +1039,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1580,10 +1615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1819,115 +1854,148 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" ht="30" spans="1:2">
-      <c r="A39" s="8" t="s">
-        <v>69</v>
+      <c r="A39" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" ht="30" spans="1:2">
-      <c r="A40" s="9" t="s">
-        <v>71</v>
+      <c r="A40" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:2">
+      <c r="A42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId2" location="detail" display="https://item.taobao.com/item.htm?spm=a230r.1.14.51.20194060emNpry&amp;id=521120590404&amp;ns=1&amp;abbucket=6#detail"/>
+    <hyperlink ref="B44" r:id="rId3" display="https://m.tb.cn/h.UlUFcoj?tk=PWRmdgkOuvA"/>
+    <hyperlink ref="E24" r:id="rId4" display="https://m.tb.cn/h.UmtI8lx?tk=zK6ndgkOuCL"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1936,6 +2004,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P11"/>
@@ -1948,18 +2041,18 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1969,20 +2062,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/wife.xlsx
+++ b/wife.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6410" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6410"/>
   </bookViews>
   <sheets>
     <sheet name="零食" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="其它" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">零食!$C$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">零食!$C$1:$C$18</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -137,12 +137,6 @@
   </si>
   <si>
     <t>六花亭——朗姆酒黄油提子饼干</t>
-  </si>
-  <si>
-    <t>旺旺仙贝（玉米口味与熏烤风味）</t>
-  </si>
-  <si>
-    <t>牧森低脂奶酪</t>
   </si>
   <si>
     <r>
@@ -216,16 +210,22 @@
     <t>麦西恩玉米片</t>
   </si>
   <si>
+    <t>旺旺仙贝（玉米口味与熏烤风味）</t>
+  </si>
+  <si>
     <t>盒马朝日唯品酪乳</t>
   </si>
   <si>
+    <t>牧森低脂奶酪</t>
+  </si>
+  <si>
     <t>山姆猪柳饼、欧姆蛋可颂三明治</t>
   </si>
   <si>
+    <t>悠哈果汁软糖</t>
+  </si>
+  <si>
     <t>盒马芋泥麻薯八宝饭</t>
-  </si>
-  <si>
-    <t>悠哈果汁软糖</t>
   </si>
   <si>
     <t>好利来葡萄奶酥</t>
@@ -1123,7 +1123,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>74930</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1615,10 +1615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1789,16 +1789,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1819,15 +1822,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1839,7 +1839,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
@@ -1847,155 +1847,151 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="C24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" ht="30" spans="1:2">
-      <c r="A39" s="9" t="s">
+    <row r="37" ht="30" spans="1:2">
+      <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" ht="30" spans="1:2">
-      <c r="A40" s="10" t="s">
+    <row r="38" ht="30" spans="1:2">
+      <c r="A38" s="10" t="s">
         <v>74</v>
       </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:2">
+      <c r="A40" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="B40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="1:2">
-      <c r="A42" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId2" location="detail" display="https://item.taobao.com/item.htm?spm=a230r.1.14.51.20194060emNpry&amp;id=521120590404&amp;ns=1&amp;abbucket=6#detail"/>
-    <hyperlink ref="B44" r:id="rId3" display="https://m.tb.cn/h.UlUFcoj?tk=PWRmdgkOuvA"/>
-    <hyperlink ref="E24" r:id="rId4" display="https://m.tb.cn/h.UmtI8lx?tk=zK6ndgkOuCL"/>
+    <hyperlink ref="B42" r:id="rId3" display="https://m.tb.cn/h.UlUFcoj?tk=PWRmdgkOuvA"/>
+    <hyperlink ref="E23" r:id="rId4" display="https://m.tb.cn/h.UmtI8lx?tk=zK6ndgkOuCL"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2008,7 +2004,7 @@
   <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>

--- a/wife.xlsx
+++ b/wife.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>未买的</t>
   </si>
@@ -200,6 +200,9 @@
     <t>费列罗Rocher新出的高端黑巧系列Origins-黑金三重奏</t>
   </si>
   <si>
+    <t>粒上皇奶芙草莓干奶芙黄桃</t>
+  </si>
+  <si>
     <t>kindcards饼干</t>
   </si>
   <si>
@@ -246,6 +249,21 @@
   </si>
   <si>
     <t>厦门帕帕烘焙板栗饼</t>
+  </si>
+  <si>
+    <t>Rock Deli红岩薯片蜂蜜味</t>
+  </si>
+  <si>
+    <t>Gralh waves警片大红</t>
+  </si>
+  <si>
+    <t>大益茶庭普洱凤梨酥</t>
+  </si>
+  <si>
+    <t>盒马鲜生芋泥麻薯饼</t>
+  </si>
+  <si>
+    <t>维斯商家——网购青团</t>
   </si>
   <si>
     <t>苏丹王榴莲乳酸软包</t>
@@ -1477,9 +1495,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1712,93 +1730,121 @@
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" ht="14.4" spans="1:1">
+    <row r="23" ht="14.4" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" ht="14.4" spans="1:1">
+      <c r="A44" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1824,18 +1870,18 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1904,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
